--- a/likechat/doc/2017-09-18-修改说明细化.xlsx
+++ b/likechat/doc/2017-09-18-修改说明细化.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suntao/Documents/项目参考资料/文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suntao/TigerJoys/gitlab/like_chat/likechat_client/likechat/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -848,58 +848,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收费点-1：计费点按文档来，收费成功后显示相关信息即可，此界面主要刺激vip购买</t>
-    <rPh sb="6" eb="7">
-      <t>ji'f</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wen'd</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>lai</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>shou'f</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>cheng'g</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>xian'shi</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>xiang'g</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>xin'xi</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ji'ke</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ci'jie'm</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>zhu'yao</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ci'ji</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>gou'm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收费点-2：嗨聊“拨打主播”</t>
     <rPh sb="6" eb="7">
       <t>hai'liao</t>
@@ -929,6 +877,845 @@
     <t>收费点-3：“聊天”</t>
     <rPh sb="7" eb="8">
       <t>liao'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费点4：</t>
+    <rPh sb="0" eb="1">
+      <t>shou'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个夏军建议用图层的方式做。你评估下文档实现的难度，尽量做个本地的假功能。如果需要服务器交互，告诉我需要什么信息。（头像我们可以随机内置一些。）</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tu'ceng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de'fang'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ping'g</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wen'd</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi'x</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>nan'du</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jin'l</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zuo'ge</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ben'di</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>gong'n</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ru'g</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xu'y</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fu'w'q</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>jiao'h</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>gao'su</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>xu'y</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>shen'm</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>tou'x</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>wo'm</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>nei'zhi</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yi'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充：之前的私密视频付费点：</t>
+    <rPh sb="0" eb="1">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>si'mi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'p</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu'f'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天发现这个接口返回了视频，在主播页面找到“如何让你爱上我”来进行测试。
+目前，这个视频播放是播放本地视频</t>
+    <rPh sb="0" eb="1">
+      <t>jin't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>le</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'p</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhu'bo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ye'm</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhao'dao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ru'h</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>rang</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ai'shang</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>mu'q</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>shi'p</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>bo'f</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>bo'f</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ben'di</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>shi'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器增加数据返回，客户端增加展示---提交了ActorPageVo。可在里面看到字段</t>
+    <rPh sb="0" eb="1">
+      <t>fu'w'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke'h'd</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhan'sh</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ti'j</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>le</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zai'li'm</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>kan'd</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zi'dua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器增加数据返回，客户端增加展示---提交了ActorPageVo。可在里面看到字段</t>
+    <rPh sb="0" eb="1">
+      <t>fu'w'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke'h'd</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhan'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收费点-1：计费点按文档来，收费成功后显示相关信息即可，此界面主要刺激vip购买----另外，应该考虑登录状态</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体-简 细体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【没有登录应该先登录，登录了在看是不是vip】【/accounting/vipMember 接口可以知道是否是vip并且可以返回vip购买产品列表】【也可以通过/accounting/getAccountInfo判断vip，但没有商品信息】</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>ji'f</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wen'd</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shou'f</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ji'ke</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ci'jie'm</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhu'yao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ci'ji</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>gou'm</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ling'w</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ying'g</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>kao'l</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>zhuang't</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ying'g</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>le</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>shi'bu'shi</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>jie'k</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>zhi'd</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>bing'q</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>k'yi</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>gou'm</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>chan'p</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>tong'g</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>pan'd</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>shagn'p</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、判断是否有嗨币，而不是vip。服务器会返回用户余额是否充足数据，没有余额，弹出文档显示的充值界面。充值界面ui可以找夏军要。实现这个功能即可。（可以点击拨打时从服务器获取嗨币是否够，这样可以避免刷新问题）
+2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体-简 细体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>充值成功或有足够的嗨币，用户点击“嗨聊”进入待接通界面（可以截图，显示个假的截图页面，头像需要处理下。尽可能简单的基础上显得真实些）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="黑体-简 细体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，考虑一直自动播放背景为“正在拨通，请稍后”（找段录音，本地播放吧）。
+【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="黑体-简 细体"/>
+        <charset val="136"/>
+      </rPr>
+      <t>getAccountInfo接口可以返回余额及vip身份，accountBalance接口可以返回余额及购买商品的列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="黑体-简 细体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>pan'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hai'bi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>er'bu'shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fu'w'q</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yong'h</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>chong'zu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>mei'y</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>tan'ch</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>wen'd</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>de</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>chogn'zhi</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>jie'm</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>jie'm</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>xia'jun</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>shi'x</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>gogn'n</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ji'ke</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>dain'ji</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>bo'd</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>fu'w'qi</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>hai'bi</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>zhe'y</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>bi'm</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>shua'xin</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>chogn'zhi</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>you</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>zu'gou</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>de</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>hai'bi</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>yong'h</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>dain'ji</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>hai'liao</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>jin'ru</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>jie'tong</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>jie'm</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>jie'tu</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>de</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>jie'tu</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ye'm</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>tou'x</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>xu'y</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>jin'ke'neng</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>jian'd</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>de</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ji'ch</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>xian'de</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>zhen'sh</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>kao'l</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>yi'zhi'yi'zhi</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>bo'f</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>bei'j</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>zhegn'z</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>bo'tong</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>shao'h</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>lu'yin</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ben'd</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>bo'f</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>jie'k</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>k'y</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="232" eb="233">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="236" eb="237">
+      <t>shen'f</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>jie'k</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>fan'h</t>
+    </rPh>
+    <rPh sb="259" eb="260">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="261" eb="262">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>gou'm</t>
+    </rPh>
+    <rPh sb="264" eb="265">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>de</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>lie'b</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -954,7 +1741,7 @@
         <charset val="134"/>
       </rPr>
       <t>）
-2、机器人功能：夏军没有提，但是上次运营哥们提过要有，我的想法是，点击“聊天”服务器判断是否是vip。不是vip返回2~3条文本消息。客户端没隔2秒显示一条。目的是自动打招呼，诱导用户回复进入支付界面</t>
+2、机器人功能：夏军没有提，但是上次运营哥们提过要有，我的想法是，点击“聊天”时和服务器交互一次，服务器判断是否是vip。不是vip返回2~3条文本消息。客户端每隔2秒显示一条。目的是自动打招呼，诱导用户回复进入支付界面。</t>
     </r>
     <rPh sb="2" eb="3">
       <t>an</t>
@@ -1149,689 +1936,97 @@
       <t>liao't</t>
     </rPh>
     <rPh sb="138" eb="139">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>he</t>
+    </rPh>
+    <rPh sb="140" eb="141">
       <t>fu'w'q</t>
     </rPh>
-    <rPh sb="141" eb="142">
+    <rPh sb="143" eb="144">
+      <t>jiao'h</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>yi'ci</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>fu'w'q</t>
+    </rPh>
+    <rPh sb="151" eb="152">
       <t>pan'd</t>
     </rPh>
-    <rPh sb="143" eb="144">
+    <rPh sb="153" eb="154">
       <t>shi'f</t>
     </rPh>
-    <rPh sb="145" eb="146">
+    <rPh sb="155" eb="156">
       <t>shi</t>
     </rPh>
-    <rPh sb="150" eb="151">
+    <rPh sb="160" eb="161">
       <t>bu'shi</t>
     </rPh>
-    <rPh sb="155" eb="156">
+    <rPh sb="165" eb="166">
       <t>fan'hui</t>
     </rPh>
-    <rPh sb="160" eb="161">
+    <rPh sb="170" eb="171">
       <t>tiao</t>
     </rPh>
-    <rPh sb="161" eb="162">
+    <rPh sb="171" eb="172">
       <t>wen'b</t>
     </rPh>
-    <rPh sb="163" eb="164">
+    <rPh sb="173" eb="174">
       <t>xiao'xi</t>
     </rPh>
-    <rPh sb="166" eb="167">
+    <rPh sb="176" eb="177">
       <t>ke'h'd</t>
     </rPh>
-    <rPh sb="169" eb="170">
+    <rPh sb="179" eb="180">
       <t>mei</t>
     </rPh>
-    <rPh sb="170" eb="171">
+    <rPh sb="180" eb="181">
       <t>ge</t>
     </rPh>
-    <rPh sb="172" eb="173">
+    <rPh sb="182" eb="183">
       <t>miao</t>
     </rPh>
-    <rPh sb="173" eb="174">
+    <rPh sb="183" eb="184">
       <t>xian'shi</t>
     </rPh>
-    <rPh sb="175" eb="176">
+    <rPh sb="185" eb="186">
       <t>yi'tiao</t>
     </rPh>
-    <rPh sb="178" eb="179">
+    <rPh sb="188" eb="189">
       <t>mu'di</t>
     </rPh>
-    <rPh sb="180" eb="181">
+    <rPh sb="190" eb="191">
       <t>shi</t>
     </rPh>
-    <rPh sb="181" eb="182">
+    <rPh sb="191" eb="192">
       <t>zi'dong</t>
     </rPh>
-    <rPh sb="183" eb="184">
+    <rPh sb="193" eb="194">
       <t>da</t>
     </rPh>
-    <rPh sb="184" eb="185">
+    <rPh sb="194" eb="195">
       <t>zhao'h</t>
     </rPh>
-    <rPh sb="187" eb="188">
+    <rPh sb="197" eb="198">
       <t>you'dao</t>
     </rPh>
-    <rPh sb="189" eb="190">
+    <rPh sb="199" eb="200">
       <t>yong'h</t>
     </rPh>
-    <rPh sb="191" eb="192">
+    <rPh sb="201" eb="202">
       <t>hui'f</t>
     </rPh>
-    <rPh sb="193" eb="194">
+    <rPh sb="203" eb="204">
       <t>jin'ru</t>
     </rPh>
-    <rPh sb="195" eb="196">
+    <rPh sb="205" eb="206">
       <t>zhi'fu</t>
     </rPh>
-    <rPh sb="197" eb="198">
+    <rPh sb="207" eb="208">
       <t>jie'm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费点4：</t>
-    <rPh sb="0" eb="1">
-      <t>shou'f</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个夏军建议用图层的方式做。你评估下文档实现的难度，尽量做个本地的假功能。如果需要服务器交互，告诉我需要什么信息。（头像我们可以随机内置一些。）</t>
-    <rPh sb="0" eb="1">
-      <t>zhe'ge</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xia'j</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jun</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jian'yi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>tu'ceng</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>de'fang'shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ni</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ping'g</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>wen'd</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>shi'x</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>de</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>nan'du</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>jin'l</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>zuo'ge</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ben'di</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>de</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>gong'n</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ru'g</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>xu'y</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>fu'w'q</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>jiao'h</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>gao'su</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>xu'y</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>shen'm</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>xin'xi</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>tou'x</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>wo'm</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>sui'ji</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>nei'zhi</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>yi'xie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、判断是否有嗨币，而不是vip。服务器会返回用户余额是否充足数据，没有余额，弹出文档显示的充值界面。充值界面ui可以找夏军要。实现这个功能即可。（可以点击拨打时从服务器获取嗨币是否够，这样可以避免刷新问题）
-2、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="黑体-简 细体"/>
-        <charset val="136"/>
-      </rPr>
-      <t>充值成功或有足够的嗨币，用户点击“嗨聊”进入待接通界面（可以截图，显示个假的截图页面，头像需要处理下。尽可能简单的基础上显得真实些）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="黑体-简 细体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，考虑一直自动播放背景为“正在拨通，请稍后”（找段录音，本地播放吧）。
-</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>pan'd</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'f</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>you</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hai'bi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>er'bu'shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>fu'w'q</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>fan'hui</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yong'h</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>shi'f</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>chong'zu</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>shu'j</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>mei'y</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>tan'ch</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>wen'd</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>xian'shi</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>de</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>chogn'zhi</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>jie'm</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>chong'zhi</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>jie'm</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>zhao</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>xia'jun</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>shi'x</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>zhe'ge</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>gogn'n</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ji'ke</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>dain'ji</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>bo'd</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>fu'w'qi</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>huo'qu</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>hai'bi</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>shi'f</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>gou</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>zhe'y</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>bi'm</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>shua'xin</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>wen'ti</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>chogn'zhi</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>cheng'g</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>huo</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>you</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>zu'gou</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>de</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>hai'bi</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>yong'h</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>dain'ji</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>hai'liao</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>jin'ru</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>jie'tong</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>jie'm</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>jie'tu</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>xian'shi</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>de</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>jie'tu</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>ye'm</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>tou'x</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>xu'y</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>chu'li</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>jin'ke'neng</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>jian'd</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>de</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>ji'ch</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>shang</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>xian'de</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>zhen'sh</t>
-    </rPh>
-    <rPh sb="171" eb="172">
-      <t>xie</t>
-    </rPh>
-    <rPh sb="174" eb="175">
-      <t>kao'l</t>
-    </rPh>
-    <rPh sb="176" eb="177">
-      <t>yi'zhi'yi'zhi</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>zi'dong</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>bo'f</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>bei'j</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>zhegn'z</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>bo'tong</t>
-    </rPh>
-    <rPh sb="191" eb="192">
-      <t>qing</t>
-    </rPh>
-    <rPh sb="192" eb="193">
-      <t>shao'h</t>
-    </rPh>
-    <rPh sb="198" eb="199">
-      <t>lu'yin</t>
-    </rPh>
-    <rPh sb="201" eb="202">
-      <t>ben'd</t>
-    </rPh>
-    <rPh sb="203" eb="204">
-      <t>bo'f</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>ba</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充：之前的私密视频付费点：</t>
-    <rPh sb="0" eb="1">
-      <t>bu'chong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhi'q</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>si'mi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shi'p</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fu'f'dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天发现这个接口返回了视频，在主播页面找到“如何让你爱上我”来进行测试。
-目前，这个视频播放是播放本地视频</t>
-    <rPh sb="0" eb="1">
-      <t>jin't</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fa'x</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhe'ge</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jie'k</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fan'h</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>le</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi'p</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zhu'bo</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ye'm</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>zhao'dao</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ru'h</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>rang</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ni</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ai'shang</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>lai</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>mu'q</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>zhe'ge</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>shi'p</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>bo'f</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>bo'f</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ben'di</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>shi'p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器增加数据返回，客户端增加展示---提交了ActorPageVo。可在里面看到字段</t>
-    <rPh sb="0" eb="1">
-      <t>fu'w'qi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zeng'j</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'j</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fan'h</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ke'h'd</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zeng'j</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zhan'sh</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ti'j</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>le</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>zai'li'm</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>kan'd</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>zi'dua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器增加数据返回，客户端增加展示---提交了ActorPageVo。可在里面看到字段</t>
-    <rPh sb="0" eb="1">
-      <t>fu'w'qi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zeng'j</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'j</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fan'h</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ke'h'd</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zeng'j</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zhan'sh</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1840,7 +2035,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1901,6 +2096,21 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="黑体-简 细体"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体-简 细体"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="黑体-简 细体"/>
       <charset val="136"/>
     </font>
@@ -2359,7 +2569,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="37" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2516,7 +2726,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.15">
@@ -2525,55 +2735,55 @@
         <v>28</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="119" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="143" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.15">
